--- a/source_plates/221024_arpae_buffers.xlsx
+++ b/source_plates/221024_arpae_buffers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE1FCCB-D821-4462-9BA3-3203E85359C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9682BAD-5551-4318-91DB-5E516841FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>E1,E2,E3</t>
-  </si>
-  <si>
     <t>60,60</t>
   </si>
   <si>
@@ -171,13 +168,16 @@
   </si>
   <si>
     <t>60.0,60.0,60.0,60.0</t>
+  </si>
+  <si>
+    <t>E1,E2,E3,E4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -265,8 +272,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -574,16 +585,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="5" width="21.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -614,10 +625,10 @@
         <v>40.950000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -631,10 +642,10 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -651,7 +662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -665,10 +676,10 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -676,16 +687,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -702,7 +713,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -719,24 +730,24 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>250</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -750,10 +761,10 @@
         <v>1000</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -767,10 +778,10 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -784,10 +795,10 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -804,7 +815,7 @@
         <v>61.225000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -821,54 +832,54 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="5">
         <v>50</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>25</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>60</v>
       </c>
     </row>
